--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_3_fts_result_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
     <t>O formato deve ser 1234-1234-567 Apenas a segunda e terceira partes do código</t>
   </si>
   <si>
-    <t>${d_IDType} = "Generation automatique"</t>
+    <t>${d_IDType} = "ID_generation"</t>
   </si>
   <si>
     <t>d_lotnumber1</t>
@@ -1211,18 +1211,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1233,16 +1232,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,23 +1263,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1287,15 +1286,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,10 +1310,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1333,7 +1333,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1341,7 +1341,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1349,14 +1356,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,19 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1413,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,19 +1497,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,115 +1557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,8 +1610,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,7 +1620,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1655,6 +1655,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1666,26 +1677,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1704,22 +1695,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,127 +1737,118 @@
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2270,12 +2270,12 @@
   <sheetPr/>
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2956,7 +2956,7 @@
   <sheetPr/>
   <dimension ref="A1:F471"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD471"/>

--- a/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_3_fts_result_202206.xlsx
+++ b/LF/PreTAS/Guinnée Bissau/gw_lf_pretas_3_fts_result_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="146">
   <si>
     <t>type</t>
   </si>
@@ -432,6 +432,9 @@
     <t>Paunca</t>
   </si>
   <si>
+    <t>Pitche</t>
+  </si>
+  <si>
     <t>Beli-Pataqui</t>
   </si>
   <si>
@@ -456,10 +459,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Jun 2022) 9. Pre TAS1 FL - Resultado FTS V2.1</t>
-  </si>
-  <si>
-    <t>gw_lf_tas1_3_fts_result_202206_v2_1</t>
+    <t>(Aug 2022) 9. Pre TAS FL - Resultado FTS  (Phase 2)</t>
+  </si>
+  <si>
+    <t>gw_lf_tas1_3_fts_result_202206_phase2</t>
   </si>
   <si>
     <t>Portuguese</t>
@@ -470,9 +473,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -533,23 +536,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -557,7 +544,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -573,22 +582,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,14 +598,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -624,16 +611,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,15 +634,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,7 +666,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,55 +699,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,121 +867,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,30 +917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -962,25 +941,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1011,142 +981,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,7 +1158,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1168,6 +1171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,7 +1193,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1976,7 +1979,7 @@
       <c r="A15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="24" t="s">
@@ -1999,13 +2002,13 @@
       <c r="A16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18" t="s">
         <v>52</v>
@@ -2028,101 +2031,101 @@
       <c r="A17" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
       <c r="H18" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="7"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
       <c r="H19" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="7"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
       <c r="H20" s="23" t="s">
         <v>72</v>
       </c>
       <c r="I20" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" s="14" customFormat="1" spans="1:13">
       <c r="A21" s="18" t="s">
@@ -2170,83 +2173,83 @@
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2258,12 +2261,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17:F33"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="$A17:$XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2275,72 +2278,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="9"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
@@ -2452,215 +2455,206 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="10" t="s">
+    <row r="17" s="4" customFormat="1" spans="1:5">
+      <c r="A17" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="10" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:5">
+      <c r="A18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="10" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:5">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:5">
+      <c r="A20" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:5">
+      <c r="A21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="10" t="s">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="1:5">
+      <c r="A22" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" s="4" customFormat="1" spans="1:5">
+      <c r="A23" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="10" t="s">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:5">
+      <c r="A24" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:5">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" s="4" customFormat="1" spans="1:5">
+      <c r="A26" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" spans="1:5">
+      <c r="A27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" spans="1:5">
+      <c r="A28" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:5">
+      <c r="A29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:5">
+      <c r="A30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30">
-        <v>1001</v>
-      </c>
-      <c r="C30">
-        <v>1001</v>
-      </c>
-      <c r="F30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B31">
-        <v>1002</v>
-      </c>
-      <c r="C31">
-        <v>1002</v>
-      </c>
-      <c r="F31" t="s">
-        <v>131</v>
-      </c>
-    </row>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1"/>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B32">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C32">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F32" t="s">
         <v>136</v>
@@ -2668,15 +2662,57 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33">
+        <v>1002</v>
+      </c>
+      <c r="C33">
+        <v>1002</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34">
+        <v>1003</v>
+      </c>
+      <c r="C34">
+        <v>1003</v>
+      </c>
+      <c r="F34" t="s">
         <v>137</v>
       </c>
-      <c r="B33">
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35">
         <v>1004</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>1004</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36">
+        <v>1005</v>
+      </c>
+      <c r="C36">
+        <v>1005</v>
+      </c>
+      <c r="F36" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2695,40 +2731,40 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="44.1259259259259" customWidth="1"/>
-    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="41.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="15.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
